--- a/fuentes_datos/datasets_finales/plan.xlsx
+++ b/fuentes_datos/datasets_finales/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina\Documents\Proyectos_programacion\MD_Datos_sinteticos_repitencias\datasets_finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina\Documents\Proyectos_programacion\PredEstu\fuentes_datos\datasets_finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFB302-7CC9-4CC7-BA69-D01D325F6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C5756-CC3E-4B6C-BEDB-BF63E32850D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="6780" windowWidth="11712" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E2">
-        <v>2013</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E3">
-        <v>2017</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -432,10 +432,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E6">
-        <v>2014</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -483,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E7">
-        <v>2017</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E10">
         <v>2025</v>
